--- a/biology/Biochimie/Octan-2-ol/Octan-2-ol.xlsx
+++ b/biology/Biochimie/Octan-2-ol/Octan-2-ol.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le 2-octanol ou octan-2-ol (abréviation 2-OH) est un alcool gras biosourcé de formule brute C8H16O. Il s’agit d’un alcool secondaire chiral car sa structure renferme un carbone asymétrique.
@@ -514,9 +526,11 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le 2-octanol est directement obtenu à partir de l’huile de ricin. Cette huile est composée d’acides gras à longues chaînes carbonées, pouvant être coupées en plus petites molécules. La coupure de l’acide ricinoléique, composant majoritaire de l’huile de ricin, conduit ainsi à la formation de 2-octanol et d’acide sébacique[8],[9].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 2-octanol est directement obtenu à partir de l’huile de ricin. Cette huile est composée d’acides gras à longues chaînes carbonées, pouvant être coupées en plus petites molécules. La coupure de l’acide ricinoléique, composant majoritaire de l’huile de ricin, conduit ainsi à la formation de 2-octanol et d’acide sébacique,.
 Le ricin étant principalement cultivé en Inde et en Chine, la majorité du 2-octanol provient de ces deux pays.
 </t>
         </is>
@@ -546,19 +560,21 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Ce produit peut être utilisé dans de très nombreuses applications, par exemple en tant que tel ou comme intermédiaire chimique dans divers secteurs industriels : arômes et parfums, peinture et revêtement, encre, adhésifs, cosmétique, lessive et détergence, lubrifiants et carburants, etc.
 Utilisation en tant que tel dans les applications suivantes :
-arôme alimentaire[6],[10],[11],[12] ;
-solvant : résines (peintures et revêtements, adhésifs, encres, etc.), agrochimie, extraction minérale, etc.[13],[14],[15],[16] ;
-flottation minérale[17] ;
+arôme alimentaire ;
+solvant : résines (peintures et revêtements, adhésifs, encres, etc.), agrochimie, extraction minérale, etc. ;
+flottation minérale ;
 agent anti-mousse : papier, pétrole, ciment, peinture et revêtements, etc.
 Utilisation comme intermédiaire pour former de nombreux composés tels que :
-des esters émollients cosmétiques : palmitate, adipate, acrylate, maléate, stéarate, myristate, etc.[18] ;
+des esters émollients cosmétiques : palmitate, adipate, acrylate, maléate, stéarate, myristate, etc. ;
 des plastifants : adipate, maléate ;
 des tensioactifs : éthoxylates, sulfates, éthers sulfates ;
-des pesticides : dinocap[19],[20] ;
+des pesticides : dinocap, ;
 des lubrifiants : dialkyldithiophosphate de zinc (ZDDP) ;
 des parfums : octyl salicylate…</t>
         </is>
